--- a/medicine/Psychotrope/Pacherenc-du-vic-bilh/Pacherenc-du-vic-bilh.xlsx
+++ b/medicine/Psychotrope/Pacherenc-du-vic-bilh/Pacherenc-du-vic-bilh.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le pacherenc-du-vic-bilh[1] est un vin blanc français d'appellation d'origine contrôlée produit à cheval sur le Gers, les Hautes-Pyrénées et les Pyrénées-Atlantiques.
+Le pacherenc-du-vic-bilh est un vin blanc français d'appellation d'origine contrôlée produit à cheval sur le Gers, les Hautes-Pyrénées et les Pyrénées-Atlantiques.
 Le nom original et très ancien de l'appellation vient du gascon « vin de vits paisheradas » ou « vin de vigne en échalas » de la région gasconne du Vic-Bilh.
 </t>
         </is>
@@ -513,7 +525,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette appellation occupe la même aire que le madiran, à proximité de celle du jurançon. 
 Elle produit des vins blancs sec, des moelleux, voire des liquoreux (vendanges tardives). 
@@ -546,9 +560,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'appellation est réglementée par le décret du 24 avril 2007 (dernière mise à jour)[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est réglementée par le décret du 24 avril 2007 (dernière mise à jour).
 Le nom même de l'appellation est assez récent, puisqu'il y a une cinquantaine d'années, on parlait parfois de vin de Portet (du nom d'un village voisin de Viella). Lors des comices agricoles de Garlin en 1928, le stand s'intitulait « pachereng des coteaux de Portet » (sic). Une des premières étiquettes à parler de pacherenc est celle du clos La Perle en 1932.
 Paul de Cassagnac a écrit que les saveurs de ce vin se livrent sans détour « comme les vierges béarnaises ».[réf. nécessaire]
 C'est la création de l'appellation contrôlée en 1948 à l'initiative du docteur Doléris qui labellisera ce terme.
@@ -557,7 +573,7 @@
 Le liquoreux des vendanges tardives (de la Saint-Albert au 15 novembre, ou de la Saint-Sylvestre) est produit à partir de raisins passerillés (raisins blettis par le froid et le soleil où se concentrent les sucres mais où l'équilibre du fruit perdure, et notamment l'acidité).
 Les vignes réservées pour ce cru tardif (quatre à cinq hectares) sont protégées des oiseaux par des filets. Les raisins sont très dorés et très sucrés. Certaines années, le raisin peut titrer jusqu'à 19 degrés d'alcool naturel. Une fois vinifié, on obtiendra un vin liquoreux aux arômes mélangés d'épices, de miel et de fruits tropicaux.
 Les pacherenc secs préfèrent les collines donnant à l'ouest, un peu moins chaudes, et les moelleux, cueillis à surmaturité, préfèrent les versants exposés au sud.
-Depuis quelques années, une grande vente est organisée à l'automne dans le Vic-Bilh : Les Barriques d'or, manifestation qui connaît un succès croissant et l'intérêt de la presse écrite. Le record de cette vente est détenu part le viticulteur Nicolas Tortigue[5].
+Depuis quelques années, une grande vente est organisée à l'automne dans le Vic-Bilh : Les Barriques d'or, manifestation qui connaît un succès croissant et l'intérêt de la presse écrite. Le record de cette vente est détenu part le viticulteur Nicolas Tortigue.
 </t>
         </is>
       </c>
@@ -588,20 +604,17 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Aire d'appellation
-L'appellation est située dans le pays du Vic-Bilh, dans un coude de la rive gauche de l'Adour, aux confins de trois départements : le Gers, les Hautes-Pyrénées et les Pyrénées-Atlantiques[6].
-Environ 1 300 hectares sont déclarés en madiran chaque année, 1 273 ha en 2008[7] ; la production totale est de l'ordre de 60 000 hectolitres par an. 
+          <t>Aire d'appellation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'appellation est située dans le pays du Vic-Bilh, dans un coude de la rive gauche de l'Adour, aux confins de trois départements : le Gers, les Hautes-Pyrénées et les Pyrénées-Atlantiques.
+Environ 1 300 hectares sont déclarés en madiran chaque année, 1 273 ha en 2008 ; la production totale est de l'ordre de 60 000 hectolitres par an. 
 Dans le département du Gers, le décret mentionne trois communes : Cannet, Maumusson-Laguian et Viella.
 Dans le département des Pyrénées-Atlantiques, l'appellation compte vingt-huit communes : Arricau-Bordes, Arrosès, Aubous, Aurions-Idernes, Aydie, Bétracq, Burosse-Mendousse, Cadillon, Castetpugon, Castillon, Conchez-de-Béarn, Corbère-Abères, Crouseilles, Diusse, Escurès, Gayon, Lasserre, Lembeye, Mascaraàs-Haron, Mont-Disse, Moncla, Monpezat, Moncaup, Portet, Saint-Jean-Poudge, Séméacq-Blachon, Tadousse-Ussau et Vialer.
 Enfin, le département des Hautes-Pyrénées comporte six communes : Castelnau-Rivière-Basse, Hagedet, Lascazères, Madiran, Saint-Lanne et Soublecause.
-Géologie et orographie
-Les sols sont constitués de roches détritiques et sédimentaires. Le relief est constitué des petites vallées du Bergons, du Saget et du Léez, séparées par des collines vallonnées.
-Le haut des collines est constitué de sols siliceux à gros galets roulés[8]. Ce terrain chaud et sec draine bien les excès d'eau, la réserve estivale étant contenue dans le sous-sol plus profond. 
-Les flancs de colline sont des sols argilo-calcaires sur sous-sol de molasse et calcaire[8]. Ce type de sol contient une bonne réserve en eau, mais laisse ruisseler l'excédent. 
-Le bas des coteaux, en fond de vallée, est représenté par un sol limono-argileux de type boulbène[8]. Ce terroir particulier est peu perméable, donnant une terre en surface humide l'hiver et un sol battant en été.
-Climatologie
-La région est sous l'influence prépondérante du climat océanique de l'océan Atlantique voisin. Toutefois, une tendance continentale agît au nord-est du vignoble[8].
-Le climat local donne des hivers doux et des étés chauds. Les précipitations, importantes pour un vignoble, sont bien réparties, au printemps et à l'automne. L'ensoleillement important et les précipitations modérées l'été constituent un élément qualitatif pour la maturité du raisin, à condition que l'orientation et la topographie des parcelles soient aussi favorables[8].
 </t>
         </is>
       </c>
@@ -627,12 +640,21 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Encépagement</t>
+          <t>Géographie</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le pacherenc-du-vic-bilh et pacherenc-du-vic-bilh sec sont issus des cépages proches de ceux du jurançon : l'arrufiac (finesse et élégance), le petit manseng (arômes fruités et floraux dont le degré alcoolique peut atteindre 17 à 19° avec des concentrations aromatiques très riches indispensables pour les moelleux), le gros manseng (vivacité et charpente) et le petit courbu (rondeur).
+          <t>Géologie et orographie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sols sont constitués de roches détritiques et sédimentaires. Le relief est constitué des petites vallées du Bergons, du Saget et du Léez, séparées par des collines vallonnées.
+Le haut des collines est constitué de sols siliceux à gros galets roulés. Ce terrain chaud et sec draine bien les excès d'eau, la réserve estivale étant contenue dans le sous-sol plus profond. 
+Les flancs de colline sont des sols argilo-calcaires sur sous-sol de molasse et calcaire. Ce type de sol contient une bonne réserve en eau, mais laisse ruisseler l'excédent. 
+Le bas des coteaux, en fond de vallée, est représenté par un sol limono-argileux de type boulbène. Ce terroir particulier est peu perméable, donnant une terre en surface humide l'hiver et un sol battant en été.
 </t>
         </is>
       </c>
@@ -658,10 +680,83 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Géographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Climatologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La région est sous l'influence prépondérante du climat océanique de l'océan Atlantique voisin. Toutefois, une tendance continentale agît au nord-est du vignoble.
+Le climat local donne des hivers doux et des étés chauds. Les précipitations, importantes pour un vignoble, sont bien réparties, au printemps et à l'automne. L'ensoleillement important et les précipitations modérées l'été constituent un élément qualitatif pour la maturité du raisin, à condition que l'orientation et la topographie des parcelles soient aussi favorables.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Pacherenc-du-vic-bilh</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacherenc-du-vic-bilh</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pacherenc-du-vic-bilh et pacherenc-du-vic-bilh sec sont issus des cépages proches de ceux du jurançon : l'arrufiac (finesse et élégance), le petit manseng (arômes fruités et floraux dont le degré alcoolique peut atteindre 17 à 19° avec des concentrations aromatiques très riches indispensables pour les moelleux), le gros manseng (vivacité et charpente) et le petit courbu (rondeur).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Pacherenc-du-vic-bilh</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacherenc-du-vic-bilh</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Vin et gastronomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">Le pacherenc moelleux, avec son nez de fruits clairs confits (poire, pomme, coing) et d'épices, sa bouche ample et équilibrée, laisse une impression de fraîcheur (bergamote), de bonne persistance. Les secs possèdent de beaux arômes floraux, d'agrumes, de fruits secs. Le moelleux de vendange tardive a des arômes de nèfles et de fruits confits. Le pacherenc-du-vic-bilh sec se consomme dans sa jeunesse tandis que le moelleux se bonifie avec l'âge. Tout comme les crus du madiran, ceux du pacherenc moelleux peuvent facilement dépasser 10 ans d'âge.
 Il se consomme entre 10 et 12,5 °C à l'apéritif, sur foie gras frais ou au naturel (mi-cuit) ou encore escalopé avec des raisins, avec des fromages (des Pyrénées, des bleus) et des desserts (brioche, crème brûlée, glace à la vanille au coulis de framboises).
@@ -669,31 +764,33 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Pacherenc-du-vic-bilh</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Psychotrope/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Pacherenc-du-vic-bilh</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Pacherenc-du-vic-bilh</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Pacherenc-du-vic-bilh</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Commercialisation</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
